--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Bmpr2.xlsx
@@ -546,10 +546,10 @@
         <v>0.229421</v>
       </c>
       <c r="I2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N2">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q2">
-        <v>3.406675793841334</v>
+        <v>3.511991427417667</v>
       </c>
       <c r="R2">
-        <v>30.660082144572</v>
+        <v>31.607922846759</v>
       </c>
       <c r="S2">
-        <v>0.04340867540370819</v>
+        <v>0.02106181539058582</v>
       </c>
       <c r="T2">
-        <v>0.04340867540370818</v>
+        <v>0.02106181539058582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.229421</v>
       </c>
       <c r="I3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q3">
         <v>3.077073117911778</v>
@@ -638,10 +638,10 @@
         <v>27.693658061206</v>
       </c>
       <c r="S3">
-        <v>0.039208799501961</v>
+        <v>0.01845356040645163</v>
       </c>
       <c r="T3">
-        <v>0.039208799501961</v>
+        <v>0.01845356040645163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.229421</v>
       </c>
       <c r="I4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N4">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q4">
-        <v>1.541686279864889</v>
+        <v>1.805023835364778</v>
       </c>
       <c r="R4">
-        <v>13.875176518784</v>
+        <v>16.245214518283</v>
       </c>
       <c r="S4">
-        <v>0.01964453424596186</v>
+        <v>0.01082493496403939</v>
       </c>
       <c r="T4">
-        <v>0.01964453424596186</v>
+        <v>0.0108249349640394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.229421</v>
       </c>
       <c r="I5">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J5">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N5">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q5">
-        <v>1.227987016672889</v>
+        <v>1.470323858166</v>
       </c>
       <c r="R5">
-        <v>11.051883150056</v>
+        <v>13.232914723494</v>
       </c>
       <c r="S5">
-        <v>0.01564730342203034</v>
+        <v>0.008817700813078701</v>
       </c>
       <c r="T5">
-        <v>0.01564730342203034</v>
+        <v>0.008817700813078701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.229421</v>
       </c>
       <c r="I6">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J6">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N6">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q6">
-        <v>1.788827910852222</v>
+        <v>1.545849353330889</v>
       </c>
       <c r="R6">
-        <v>16.09945119767</v>
+        <v>13.912644179978</v>
       </c>
       <c r="S6">
-        <v>0.02279367184739334</v>
+        <v>0.009270635869818031</v>
       </c>
       <c r="T6">
-        <v>0.02279367184739334</v>
+        <v>0.009270635869818031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H7">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I7">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J7">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N7">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q7">
-        <v>14.074326722492</v>
+        <v>28.554974344505</v>
       </c>
       <c r="R7">
-        <v>126.668940502428</v>
+        <v>256.994769100545</v>
       </c>
       <c r="S7">
-        <v>0.1793384276034945</v>
+        <v>0.1712474561958418</v>
       </c>
       <c r="T7">
-        <v>0.1793384276034945</v>
+        <v>0.1712474561958418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H8">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I8">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J8">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>120.711086</v>
       </c>
       <c r="O8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q8">
-        <v>12.71260754803267</v>
+        <v>25.01878086950333</v>
       </c>
       <c r="R8">
-        <v>114.413467932294</v>
+        <v>225.16902782553</v>
       </c>
       <c r="S8">
-        <v>0.1619870771339336</v>
+        <v>0.1500404983500925</v>
       </c>
       <c r="T8">
-        <v>0.1619870771339336</v>
+        <v>0.1500404983500925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H9">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I9">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J9">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N9">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q9">
-        <v>6.369316518357334</v>
+        <v>14.67612047901833</v>
       </c>
       <c r="R9">
-        <v>57.323848665216</v>
+        <v>132.085084311165</v>
       </c>
       <c r="S9">
-        <v>0.08115935005869462</v>
+        <v>0.08801437775899201</v>
       </c>
       <c r="T9">
-        <v>0.08115935005869464</v>
+        <v>0.08801437775899203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H10">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I10">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J10">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N10">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q10">
-        <v>5.073300639549334</v>
+        <v>11.95477293033</v>
       </c>
       <c r="R10">
-        <v>45.659705755944</v>
+        <v>107.59295637297</v>
       </c>
       <c r="S10">
-        <v>0.06464520665152534</v>
+        <v>0.07169414439035843</v>
       </c>
       <c r="T10">
-        <v>0.06464520665152533</v>
+        <v>0.07169414439035843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H11">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I11">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J11">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N11">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q11">
-        <v>7.390356462203334</v>
+        <v>12.56884862537667</v>
       </c>
       <c r="R11">
-        <v>66.51320815983</v>
+        <v>113.11963762839</v>
       </c>
       <c r="S11">
-        <v>0.09416968452514364</v>
+        <v>0.07537682676365466</v>
       </c>
       <c r="T11">
-        <v>0.09416968452514363</v>
+        <v>0.07537682676365466</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H12">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I12">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J12">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N12">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O12">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P12">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q12">
-        <v>6.730820764165334</v>
+        <v>19.25644275070134</v>
       </c>
       <c r="R12">
-        <v>60.577386877488</v>
+        <v>173.307984756312</v>
       </c>
       <c r="S12">
-        <v>0.08576572337185548</v>
+        <v>0.1154830957525634</v>
       </c>
       <c r="T12">
-        <v>0.08576572337185548</v>
+        <v>0.1154830957525634</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H13">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I13">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J13">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>120.711086</v>
       </c>
       <c r="O13">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P13">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q13">
-        <v>6.079600434047112</v>
+        <v>16.87176166553422</v>
       </c>
       <c r="R13">
-        <v>54.71640390642401</v>
+        <v>151.845854989808</v>
       </c>
       <c r="S13">
-        <v>0.07746771861968557</v>
+        <v>0.1011818897789081</v>
       </c>
       <c r="T13">
-        <v>0.07746771861968559</v>
+        <v>0.1011818897789081</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H14">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I14">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J14">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N14">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O14">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P14">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q14">
-        <v>3.046023353059556</v>
+        <v>9.897045271238223</v>
       </c>
       <c r="R14">
-        <v>27.414210177536</v>
+        <v>89.07340744114401</v>
       </c>
       <c r="S14">
-        <v>0.03881315599333354</v>
+        <v>0.05935371561210241</v>
       </c>
       <c r="T14">
-        <v>0.03881315599333354</v>
+        <v>0.05935371561210243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H15">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I15">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J15">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N15">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O15">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P15">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q15">
-        <v>2.426224569091556</v>
+        <v>8.061866831088</v>
       </c>
       <c r="R15">
-        <v>21.836021121824</v>
+        <v>72.55680147979201</v>
       </c>
       <c r="S15">
-        <v>0.03091553207575418</v>
+        <v>0.04834794002464667</v>
       </c>
       <c r="T15">
-        <v>0.03091553207575418</v>
+        <v>0.04834794002464668</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H16">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I16">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J16">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N16">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O16">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P16">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q16">
-        <v>3.534319311408889</v>
+        <v>8.475977287767112</v>
       </c>
       <c r="R16">
-        <v>31.80887380268</v>
+        <v>76.283795589904</v>
       </c>
       <c r="S16">
-        <v>0.04503513954552478</v>
+        <v>0.0508314079288664</v>
       </c>
       <c r="T16">
-        <v>0.04503513954552478</v>
+        <v>0.0508314079288664</v>
       </c>
     </row>
   </sheetData>
